--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H2">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I2">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J2">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>3398.152220245277</v>
+        <v>2398.702822055083</v>
       </c>
       <c r="R2">
-        <v>13592.60888098111</v>
+        <v>9594.811288220331</v>
       </c>
       <c r="S2">
-        <v>0.08682392264262966</v>
+        <v>0.07662395431659964</v>
       </c>
       <c r="T2">
-        <v>0.04915683622049345</v>
+        <v>0.0436288896617351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H3">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I3">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J3">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>5009.962265936068</v>
+        <v>3907.166353222325</v>
       </c>
       <c r="R3">
-        <v>30059.77359561641</v>
+        <v>23442.99811933395</v>
       </c>
       <c r="S3">
-        <v>0.1280062069110988</v>
+        <v>0.1248101821551064</v>
       </c>
       <c r="T3">
-        <v>0.1087093272824439</v>
+        <v>0.1065984465525006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H4">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I4">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J4">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>2369.094350270142</v>
+        <v>2140.297568277363</v>
       </c>
       <c r="R4">
-        <v>14214.56610162085</v>
+        <v>12841.78540966418</v>
       </c>
       <c r="S4">
-        <v>0.06053115083411387</v>
+        <v>0.06836947936514662</v>
       </c>
       <c r="T4">
-        <v>0.05140610635684821</v>
+        <v>0.05839331508122228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H5">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I5">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J5">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>796.4508915428823</v>
+        <v>916.5465166780109</v>
       </c>
       <c r="R5">
-        <v>3185.803566171529</v>
+        <v>3666.186066712044</v>
       </c>
       <c r="S5">
-        <v>0.02034958592613646</v>
+        <v>0.0292780822106198</v>
       </c>
       <c r="T5">
-        <v>0.01152126317355305</v>
+        <v>0.01667063817923599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H6">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I6">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J6">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>1836.387233446015</v>
+        <v>1456.701192447957</v>
       </c>
       <c r="R6">
-        <v>11018.32340067609</v>
+        <v>8740.20715468774</v>
       </c>
       <c r="S6">
-        <v>0.04692030632080426</v>
+        <v>0.04653273619257254</v>
       </c>
       <c r="T6">
-        <v>0.03984709069274497</v>
+        <v>0.03974289041419055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H7">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I7">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J7">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>1743.492035683334</v>
+        <v>1613.027032899292</v>
       </c>
       <c r="R7">
-        <v>10460.9522141</v>
+        <v>9678.162197395752</v>
       </c>
       <c r="S7">
-        <v>0.04454680303382182</v>
+        <v>0.05152639524325259</v>
       </c>
       <c r="T7">
-        <v>0.03783139198674607</v>
+        <v>0.04400789738897245</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>21.562193</v>
       </c>
       <c r="I8">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J8">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>341.1436634611354</v>
+        <v>308.7759583712617</v>
       </c>
       <c r="R8">
-        <v>2046.861980766812</v>
+        <v>1852.65575022757</v>
       </c>
       <c r="S8">
-        <v>0.008716334386054955</v>
+        <v>0.009863512357914137</v>
       </c>
       <c r="T8">
-        <v>0.00740235079487158</v>
+        <v>0.008424273378580448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>21.562193</v>
       </c>
       <c r="I9">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J9">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>502.9547737800037</v>
@@ -1013,10 +1013,10 @@
         <v>4526.592964020034</v>
       </c>
       <c r="S9">
-        <v>0.01285066222497366</v>
+        <v>0.01606634354830876</v>
       </c>
       <c r="T9">
-        <v>0.01637014578419253</v>
+        <v>0.02058302336944111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>21.562193</v>
       </c>
       <c r="I10">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J10">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>237.8355863287074</v>
+        <v>275.5124256194115</v>
       </c>
       <c r="R10">
-        <v>2140.520276958367</v>
+        <v>2479.611830574704</v>
       </c>
       <c r="S10">
-        <v>0.006076778558076975</v>
+        <v>0.008800944960839574</v>
       </c>
       <c r="T10">
-        <v>0.007741060277862782</v>
+        <v>0.01127512649393052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>21.562193</v>
       </c>
       <c r="I11">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J11">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>79.95644612065517</v>
+        <v>117.9835728198412</v>
       </c>
       <c r="R11">
-        <v>479.7386767239311</v>
+        <v>707.9014369190471</v>
       </c>
       <c r="S11">
-        <v>0.002042913866953927</v>
+        <v>0.003768856988341475</v>
       </c>
       <c r="T11">
-        <v>0.001734945496250633</v>
+        <v>0.003218922473299987</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>21.562193</v>
       </c>
       <c r="I12">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J12">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>184.3566231726412</v>
+        <v>187.5156449656891</v>
       </c>
       <c r="R12">
-        <v>1659.209608553771</v>
+        <v>1687.640804691202</v>
       </c>
       <c r="S12">
-        <v>0.004710373212134236</v>
+        <v>0.005989983453301967</v>
       </c>
       <c r="T12">
-        <v>0.00600042977012811</v>
+        <v>0.00767392836031185</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>21.562193</v>
       </c>
       <c r="I13">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J13">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>175.0307878278019</v>
+        <v>207.6388802242357</v>
       </c>
       <c r="R13">
-        <v>1575.277090450217</v>
+        <v>1868.749922018121</v>
       </c>
       <c r="S13">
-        <v>0.004472095008546348</v>
+        <v>0.006632798330149455</v>
       </c>
       <c r="T13">
-        <v>0.005696892966993655</v>
+        <v>0.008497455729348411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H14">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I14">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J14">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>1500.256631091343</v>
+        <v>1265.191935415234</v>
       </c>
       <c r="R14">
-        <v>9001.539786548057</v>
+        <v>7591.151612491401</v>
       </c>
       <c r="S14">
-        <v>0.03833205731806945</v>
+        <v>0.04041518114275223</v>
       </c>
       <c r="T14">
-        <v>0.0325535164657559</v>
+        <v>0.03451798124612416</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H15">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I15">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J15">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>2211.857687306744</v>
+        <v>2060.828592425409</v>
       </c>
       <c r="R15">
-        <v>19906.71918576069</v>
+        <v>18547.45733182868</v>
       </c>
       <c r="S15">
-        <v>0.05651370165088276</v>
+        <v>0.06583092931247683</v>
       </c>
       <c r="T15">
-        <v>0.07199142881768565</v>
+        <v>0.08433776810488852</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H16">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I16">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J16">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>1045.935931739183</v>
+        <v>1128.896501006898</v>
       </c>
       <c r="R16">
-        <v>9413.423385652646</v>
+        <v>10160.06850906208</v>
       </c>
       <c r="S16">
-        <v>0.02672401191607444</v>
+        <v>0.0360613716405322</v>
       </c>
       <c r="T16">
-        <v>0.03404306823616116</v>
+        <v>0.04619918981436873</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H17">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I17">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J17">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>351.6266058527464</v>
+        <v>483.4309822258234</v>
       </c>
       <c r="R17">
-        <v>2109.759635116478</v>
+        <v>2900.585893354941</v>
       </c>
       <c r="S17">
-        <v>0.008984177060627868</v>
+        <v>0.01544267724901595</v>
       </c>
       <c r="T17">
-        <v>0.007629816303560341</v>
+        <v>0.01318935183758478</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H18">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I18">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J18">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>810.7500622882666</v>
+        <v>768.3346949231158</v>
       </c>
       <c r="R18">
-        <v>7296.750560594399</v>
+        <v>6915.012254308042</v>
       </c>
       <c r="S18">
-        <v>0.02071493450800822</v>
+        <v>0.02454361666744869</v>
       </c>
       <c r="T18">
-        <v>0.02638825080524519</v>
+        <v>0.03144348519112047</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H19">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I19">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J19">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>769.7375862697718</v>
+        <v>850.7885073827135</v>
       </c>
       <c r="R19">
-        <v>6927.638276427946</v>
+        <v>7657.096566444421</v>
       </c>
       <c r="S19">
-        <v>0.01966705206648666</v>
+        <v>0.02717751408110196</v>
       </c>
       <c r="T19">
-        <v>0.02505337887163645</v>
+        <v>0.03481784176795607</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H20">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I20">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J20">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>161.680405652469</v>
+        <v>197.6165271497125</v>
       </c>
       <c r="R20">
-        <v>646.721622609876</v>
+        <v>790.4661085988502</v>
       </c>
       <c r="S20">
-        <v>0.004130988291097129</v>
+        <v>0.00631264515524755</v>
       </c>
       <c r="T20">
-        <v>0.002338829076982225</v>
+        <v>0.003594355073532364</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H21">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I21">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J21">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>238.368583559697</v>
+        <v>321.8909147980617</v>
       </c>
       <c r="R21">
-        <v>1430.211501358182</v>
+        <v>1931.34548878837</v>
       </c>
       <c r="S21">
-        <v>0.006090396815103974</v>
+        <v>0.0102824553853169</v>
       </c>
       <c r="T21">
-        <v>0.005172272162653123</v>
+        <v>0.008782086139879342</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H22">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I22">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J22">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>112.7189456960235</v>
+        <v>176.3278754754533</v>
       </c>
       <c r="R22">
-        <v>676.3136741761409</v>
+        <v>1057.96725285272</v>
       </c>
       <c r="S22">
-        <v>0.002880006658666962</v>
+        <v>0.005632602317780551</v>
       </c>
       <c r="T22">
-        <v>0.002445846916236517</v>
+        <v>0.004810718538790751</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H23">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I23">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J23">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>37.89427161612826</v>
+        <v>75.50945366458376</v>
       </c>
       <c r="R23">
-        <v>151.577086464513</v>
+        <v>302.037814658335</v>
       </c>
       <c r="S23">
-        <v>0.0009682112789991604</v>
+        <v>0.002412067420302389</v>
       </c>
       <c r="T23">
-        <v>0.0005481692351599414</v>
+        <v>0.001373406322808909</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H24">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I24">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J24">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>87.37331749580551</v>
+        <v>120.0099604251017</v>
       </c>
       <c r="R24">
-        <v>524.2399049748331</v>
+        <v>720.0597625506101</v>
       </c>
       <c r="S24">
-        <v>0.002232417404402848</v>
+        <v>0.003833587737755518</v>
       </c>
       <c r="T24">
-        <v>0.00189588145842646</v>
+        <v>0.00327420800539817</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H25">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I25">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J25">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>82.9534645039485</v>
+        <v>132.8888253723175</v>
       </c>
       <c r="R25">
-        <v>497.7207870236909</v>
+        <v>797.3329522339052</v>
       </c>
       <c r="S25">
-        <v>0.002119488686268765</v>
+        <v>0.004244989079468894</v>
       </c>
       <c r="T25">
-        <v>0.001799976695091421</v>
+        <v>0.003625579529572058</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H26">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I26">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J26">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N26">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O26">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P26">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q26">
-        <v>2180.116483577926</v>
+        <v>519.053568402035</v>
       </c>
       <c r="R26">
-        <v>13080.69890146756</v>
+        <v>3114.32141041221</v>
       </c>
       <c r="S26">
-        <v>0.05570270330869082</v>
+        <v>0.01658060204349576</v>
       </c>
       <c r="T26">
-        <v>0.04730554518115564</v>
+        <v>0.0141612358080318</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H27">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I27">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J27">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P27">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q27">
-        <v>3214.188361839268</v>
+        <v>845.4689006631112</v>
       </c>
       <c r="R27">
-        <v>28927.69525655342</v>
+        <v>7609.220105968001</v>
       </c>
       <c r="S27">
-        <v>0.08212358470128514</v>
+        <v>0.02700758502673254</v>
       </c>
       <c r="T27">
-        <v>0.1046152354131522</v>
+        <v>0.03460014110154645</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H28">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I28">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J28">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N28">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O28">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P28">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q28">
-        <v>1519.914738781912</v>
+        <v>463.1374424718346</v>
       </c>
       <c r="R28">
-        <v>13679.23264903721</v>
+        <v>4168.236982246512</v>
       </c>
       <c r="S28">
-        <v>0.0388343285263037</v>
+        <v>0.01479442218017857</v>
       </c>
       <c r="T28">
-        <v>0.04947010576399467</v>
+        <v>0.01895353081156093</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H29">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I29">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J29">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N29">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O29">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P29">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q29">
-        <v>510.9705523690884</v>
+        <v>198.3308376985985</v>
       </c>
       <c r="R29">
-        <v>3065.82331421453</v>
+        <v>1189.985026191591</v>
       </c>
       <c r="S29">
-        <v>0.01305546804149735</v>
+        <v>0.006335463029292826</v>
       </c>
       <c r="T29">
-        <v>0.01108736195217707</v>
+        <v>0.005411021003672047</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H30">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I30">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J30">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N30">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O30">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P30">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q30">
-        <v>1178.151483037081</v>
+        <v>315.2145172313673</v>
       </c>
       <c r="R30">
-        <v>10603.36334733373</v>
+        <v>2836.930655082306</v>
       </c>
       <c r="S30">
-        <v>0.03010216335074229</v>
+        <v>0.01006918512213709</v>
       </c>
       <c r="T30">
-        <v>0.03834641311430461</v>
+        <v>0.01289990295906459</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H31">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I31">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J31">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N31">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O31">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P31">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q31">
-        <v>1118.553696133634</v>
+        <v>349.041752757857</v>
       </c>
       <c r="R31">
-        <v>10066.98326520271</v>
+        <v>3141.375774820713</v>
       </c>
       <c r="S31">
-        <v>0.0285794200171893</v>
+        <v>0.01114975939161576</v>
       </c>
       <c r="T31">
-        <v>0.03640662744989533</v>
+        <v>0.01428425561990617</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H32">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I32">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J32">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N32">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O32">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P32">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q32">
-        <v>1195.369401779747</v>
+        <v>1350.589218404743</v>
       </c>
       <c r="R32">
-        <v>7172.216410678485</v>
+        <v>8103.53531042846</v>
       </c>
       <c r="S32">
-        <v>0.0305420869174601</v>
+        <v>0.04314310452299981</v>
       </c>
       <c r="T32">
-        <v>0.02593788069124591</v>
+        <v>0.03684785842142753</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H33">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I33">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J33">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P33">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q33">
-        <v>1762.356483353426</v>
+        <v>2199.929354589583</v>
       </c>
       <c r="R33">
-        <v>15861.20835018084</v>
+        <v>19799.36419130625</v>
       </c>
       <c r="S33">
-        <v>0.04502879596381654</v>
+        <v>0.07027435196053136</v>
       </c>
       <c r="T33">
-        <v>0.05736108704046557</v>
+        <v>0.09003035596286682</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H34">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I34">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J34">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N34">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O34">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P34">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q34">
-        <v>833.3772923326522</v>
+        <v>1205.094183954279</v>
       </c>
       <c r="R34">
-        <v>7500.395630993869</v>
+        <v>10845.84765558851</v>
       </c>
       <c r="S34">
-        <v>0.02129306778269976</v>
+        <v>0.03849542379718439</v>
       </c>
       <c r="T34">
-        <v>0.02712472071035255</v>
+        <v>0.04931751927571555</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H35">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I35">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J35">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N35">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O35">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P35">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q35">
-        <v>280.1678571367362</v>
+        <v>516.0613612532443</v>
       </c>
       <c r="R35">
-        <v>1681.007142820417</v>
+        <v>3096.368167519466</v>
       </c>
       <c r="S35">
-        <v>0.007158382196673791</v>
+        <v>0.01648501923858693</v>
       </c>
       <c r="T35">
-        <v>0.006079259215699472</v>
+        <v>0.0140796000124222</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H36">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I36">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J36">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N36">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O36">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P36">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q36">
-        <v>645.9866911205887</v>
+        <v>820.1953601205062</v>
       </c>
       <c r="R36">
-        <v>5813.880220085298</v>
+        <v>7381.758241084556</v>
       </c>
       <c r="S36">
-        <v>0.01650517541970911</v>
+        <v>0.02620024924584737</v>
       </c>
       <c r="T36">
-        <v>0.02102554118100035</v>
+        <v>0.03356584159245282</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H37">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I37">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J37">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N37">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O37">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P37">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q37">
-        <v>613.3089092613133</v>
+        <v>908.2145981563153</v>
       </c>
       <c r="R37">
-        <v>5519.780183351819</v>
+        <v>8173.931383406838</v>
       </c>
       <c r="S37">
-        <v>0.01567024719389889</v>
+        <v>0.02901192813004509</v>
       </c>
       <c r="T37">
-        <v>0.019961946438833</v>
+        <v>0.03716795877653965</v>
       </c>
     </row>
   </sheetData>
